--- a/data/trans_media/P34F2H-Estudios-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Estudios-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,01</t>
+          <t>0,82; 1,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,75</t>
+          <t>0,62; 0,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,84</t>
+          <t>0,73; 0,83</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 0,98</t>
+          <t>0,86; 0,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,88</t>
+          <t>0,77; 0,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 0,92</t>
+          <t>0,83; 0,91</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,9</t>
+          <t>0,7; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,87</t>
+          <t>0,69; 0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 0,87</t>
+          <t>0,81; 0,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/P34F2H-Estudios-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Estudios-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,0</t>
+          <t>0,83; 1,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,74</t>
+          <t>0,62; 0,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,83</t>
+          <t>0,72; 0,83</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 0,98</t>
+          <t>0,86; 0,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,88</t>
+          <t>0,78; 0,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 0,91</t>
+          <t>0,83; 0,92</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,89</t>
+          <t>0,69; 0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,85</t>
+          <t>0,72; 0,86</t>
         </is>
       </c>
     </row>
